--- a/3 четверть_1_HTML.xlsx
+++ b/3 четверть_1_HTML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1397B2DC-33ED-4519-8908-7A79052044C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B80561-2BE2-446A-8846-AF3C3CE54FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
     <sheet name="Подход к верстке" sheetId="27" r:id="rId2"/>
     <sheet name="VsCode hotkeys" sheetId="13" r:id="rId3"/>
-    <sheet name="empty" sheetId="16" r:id="rId4"/>
+    <sheet name="html hotkeys" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="269">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -3294,17 +3294,545 @@
   <si>
     <t>Основы позиционирования</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.item.item$*6 //$ - это enumeration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+===
+    &lt;div class="top"&gt;
+        &lt;div class="item item1"&gt;&lt;/div&gt;
+        &lt;div class="item item2"&gt;&lt;/div&gt;
+        &lt;div class="item item3"&gt;&lt;/div&gt;
+        &lt;div class="item item4"&gt;&lt;/div&gt;
+        &lt;div class="item item5"&gt;&lt;/div&gt;
+        &lt;div class="item item6"&gt;&lt;/div&gt;
+    &lt;/div&gt;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>В данном случае в css можно будет отдельно обращаться к item и отдельно к item1,…</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;</t>
+  </si>
+  <si>
+    <t>Создание тэга с классом</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(hotkey - "ul" + tab)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;ul&gt;
+&lt;li&gt;Первый элемент&lt;/li&gt;
+&lt;li&gt;Второй элемент&lt;/li&gt;
+&lt;li&gt;Третий элемент&lt;/li&gt;
+&lt;/ul&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(hotkey - "ol" + tab)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;ol&gt;
+&lt;li&gt;Первый элемент&lt;/li&gt;
+&lt;li&gt;Второй элемент&lt;/li&gt;
+&lt;li&gt;Третий элемент&lt;/li&gt;
+&lt;/ol&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(hotkey - "class" + tab)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;body&gt;
+    &lt;h1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Lorem, ipsum dolor.&lt;/h1&gt;
+    &lt;p </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>border</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;Lorem, ipsum dolor.&lt;/p&gt;
+&lt;/body&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Центирование контента страницы</t>
+  </si>
+  <si>
+    <t>Способ 1
+(устаревающий)</t>
+  </si>
+  <si>
+    <t>Создаем &lt;div&gt; c классом .container, в который располагаем все содержимое html страницы</t>
+  </si>
+  <si>
+    <t>.container {
+  width: 1280 px;
+  margin: 0 auto;
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Способ 2
+(современный)</t>
+  </si>
+  <si>
+    <t>Шаг 1 Подключаем в pixso (figma) grid</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Шаг 2 Определяем ширину сетки. (см на фото ниже)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Шаг 3 Создаем класс, который мы будем добавлять во все основные (родительские) &lt;div&gt; на странице, чтобы центировать их содержимое.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">.center {
+  padding-left: calc(50% -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ширина сетки/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> px);
+  padding-right: calc(50% -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ширина сетки/2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> px);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Предварительная вёрстка страницы</t>
+  </si>
+  <si>
+    <t>Создание структуры страницы с использованием блочных лементов &lt;div&gt; итд
+Указание margin padding итд в css
+Указание цвета и размера шрифта для каждого текста</t>
+  </si>
+  <si>
+    <t>Позиционирование элементов на странице</t>
+  </si>
+  <si>
+    <t>display: flex/grid …</t>
+  </si>
+  <si>
+    <r>
+      <t>Шаг 8</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (см вкладки 3 четверть_1_HTML_CSS_свойства 2.xls )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Шаг 7 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (см вкладки 3 четверть_1_HTML_CSS_свойства 2.xls )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Шаг 6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  (см вкладки 3 четверть_1_HTML_CSS_свойства 1.xls )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Самый простой способ -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> использовать отладчик как указано на фото справа
+Благодаря использованию подсказки можно автоматически указать необходимые свойства, а затем скопировать в css
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Свойство </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> прописываем самостоятельно</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Очень важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Margin: auto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> всегда располагает элемент по центу экрана</t>
+    </r>
+  </si>
+  <si>
+    <t>Семинар 00 54 51</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3442,8 +3970,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3498,6 +4033,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3511,7 +4058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -3522,78 +4069,78 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -3602,11 +4149,26 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4335,13 +4897,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>366059</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>209177</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3230056</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>1123624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4379,13 +4941,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>366059</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>119530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2633126</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>1059378</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4423,13 +4985,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>37113</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1624509</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>1286061</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4467,7 +5029,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>366059</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>119530</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2267067" cy="939848"/>
@@ -4506,13 +5068,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>59766</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>60610</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3466648</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>1870043</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4550,13 +5112,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>118890</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>29882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1355363</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>1195293</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4594,13 +5156,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>75687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1947746</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>1105744</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4638,13 +5200,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>410883</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>188103</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3595562</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>968273</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4726,13 +5288,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>112057</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>7892</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1818660</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>1441823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4807,6 +5369,270 @@
         <a:xfrm>
           <a:off x="11138273" y="3632200"/>
           <a:ext cx="2005791" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2807078</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647C5882-96DC-4AF2-A80D-0FBCA68A69F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6623050" y="7664659"/>
+          <a:ext cx="2229228" cy="1314241"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>222076</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3874013</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1206500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0D59A5A-2C08-4010-9B04-09AE59029CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6263647" y="9834336"/>
+          <a:ext cx="3651937" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>224686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2356177</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1215571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC65DDA4-A728-41C8-8150-B10EB0CC273E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6251121" y="11074115"/>
+          <a:ext cx="2146627" cy="990885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2978150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>527051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3924712</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1088572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D474654-3E5F-4D7F-A45E-129BAE748109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9019721" y="12664622"/>
+          <a:ext cx="946562" cy="561521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>86098</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>457200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2813566</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1197429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8999369D-A91A-4D86-A649-EE2C1DF03AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6127669" y="12594771"/>
+          <a:ext cx="2727468" cy="740229"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>417287</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2976879</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>1201253</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{483E51B7-E68D-E82A-3DE0-465D0C6DE3D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430001" y="14577787"/>
+          <a:ext cx="2559592" cy="1155895"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5086,8 +5912,8 @@
   </sheetPr>
   <dimension ref="A1:V176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5132,7 +5958,9 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B3" s="30"/>
+      <c r="B3" s="34" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -5175,12 +6003,12 @@
       <c r="V9" s="2"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="P10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="2"/>
@@ -5921,7 +6749,7 @@
       <c r="A103" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="30" t="s">
+      <c r="B103" s="34" t="s">
         <v>221</v>
       </c>
       <c r="C103" s="24" t="s">
@@ -6045,522 +6873,528 @@
       <c r="D116" s="18"/>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
+      <c r="A117" s="3"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="6"/>
+      <c r="D117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="P117" s="5"/>
+      <c r="Q117" s="5"/>
+      <c r="R117" s="5"/>
+      <c r="S117" s="5"/>
+      <c r="U117" s="5"/>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C118" s="18"/>
-      <c r="D118" s="18"/>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C119" s="18"/>
-      <c r="D119" s="18"/>
+      <c r="A118" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="2"/>
+    </row>
+    <row r="119" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="19"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A120" s="3"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="5"/>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="U120" s="5"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C121" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="P121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="2"/>
-    </row>
-    <row r="122" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A122" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="10"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A123" s="15" t="s">
+      <c r="A120" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B124" s="18" t="s">
+    <row r="121" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B121" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="C124" s="23" t="s">
+      <c r="C121" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A125" s="15" t="s">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A122" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="C126" s="23" t="s">
+    <row r="123" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C123" s="23" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A127" s="19" t="s">
+    <row r="124" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="10" t="s">
+      <c r="B124" s="19"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C128" s="18" t="s">
+    <row r="125" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C125" s="18" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C126" s="18"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A127" s="3"/>
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="3"/>
+      <c r="P127" s="5"/>
+      <c r="Q127" s="5"/>
+      <c r="R127" s="5"/>
+      <c r="S127" s="5"/>
+      <c r="U127" s="5"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="P128" s="1"/>
+      <c r="U128" s="1"/>
+      <c r="V128" s="2"/>
+    </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C129" s="18"/>
+      <c r="A129" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C129" s="24"/>
+      <c r="P129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A130" s="3"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="3"/>
-      <c r="K130" s="3"/>
-      <c r="L130" s="3"/>
-      <c r="M130" s="3"/>
-      <c r="N130" s="3"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="U130" s="5"/>
+      <c r="C130" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="P130" s="1"/>
+      <c r="U130" s="1"/>
+      <c r="V130" s="2"/>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A131" s="1" t="s">
+      <c r="A131" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B132" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A133" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B134" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A135" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C135" s="23"/>
+    </row>
+    <row r="136" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A136" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C136" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A137" s="3"/>
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="3"/>
+      <c r="I137" s="3"/>
+      <c r="K137" s="3"/>
+      <c r="L137" s="3"/>
+      <c r="M137" s="3"/>
+      <c r="N137" s="3"/>
+      <c r="P137" s="5"/>
+      <c r="Q137" s="5"/>
+      <c r="R137" s="5"/>
+      <c r="S137" s="5"/>
+      <c r="U137" s="5"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C131" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" s="1" t="s">
+      <c r="C138" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="P131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="V131" s="2"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A132" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C132" s="24"/>
-      <c r="P132" s="1"/>
-      <c r="U132" s="1"/>
-      <c r="V132" s="2"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="C133" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="P133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="2"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A134" s="10" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B135" s="2" t="s">
+      <c r="P138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="2"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A139" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A140" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A142" s="3"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="3"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+      <c r="M142" s="3"/>
+      <c r="N142" s="3"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="U142" s="5"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A143" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C143" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="P143" s="1"/>
+      <c r="U143" s="1"/>
+      <c r="V143" s="2"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A144" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A145" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C135" s="23" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A136" s="10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="B137" s="2" t="s">
+      <c r="C145" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A146" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A147" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C137" s="23" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A138" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C138" s="23"/>
-    </row>
-    <row r="139" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="27" t="s">
+      <c r="C147" s="23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A148" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A149" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B149" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C139" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A140" s="3"/>
-      <c r="B140" s="5"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="3"/>
-      <c r="I140" s="3"/>
-      <c r="K140" s="3"/>
-      <c r="L140" s="3"/>
-      <c r="M140" s="3"/>
-      <c r="N140" s="3"/>
-      <c r="P140" s="5"/>
-      <c r="Q140" s="5"/>
-      <c r="R140" s="5"/>
-      <c r="S140" s="5"/>
-      <c r="U140" s="5"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A141" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C141" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="P141" s="1"/>
-      <c r="U141" s="1"/>
-      <c r="V141" s="2"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A142" s="10" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C143" s="26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A145" s="3"/>
-      <c r="B145" s="5"/>
-      <c r="C145" s="6"/>
-      <c r="D145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="3"/>
-      <c r="I145" s="3"/>
-      <c r="K145" s="3"/>
-      <c r="L145" s="3"/>
-      <c r="M145" s="3"/>
-      <c r="N145" s="3"/>
-      <c r="P145" s="5"/>
-      <c r="Q145" s="5"/>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="U145" s="5"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A146" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C146" s="17" t="s">
+      <c r="C149" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A150" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="P146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="V146" s="2"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A147" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A148" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A149" s="10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C150" s="23" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A151" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="27" t="s">
-        <v>170</v>
-      </c>
+    </row>
+    <row r="151" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B151" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" ht="203" x14ac:dyDescent="0.35">
       <c r="B152" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C152" s="23" t="s">
-        <v>177</v>
+        <v>183</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A153" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B153" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B154" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C154" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" ht="203" x14ac:dyDescent="0.35">
-      <c r="B155" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C155" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>109</v>
+        <v>182</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B156" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C156" s="23" t="s">
-        <v>178</v>
-      </c>
+      <c r="A156" s="3"/>
+      <c r="B156" s="5"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="3"/>
+      <c r="I156" s="3"/>
+      <c r="K156" s="3"/>
+      <c r="L156" s="3"/>
+      <c r="M156" s="3"/>
+      <c r="N156" s="3"/>
+      <c r="P156" s="5"/>
+      <c r="Q156" s="5"/>
+      <c r="R156" s="5"/>
+      <c r="S156" s="5"/>
+      <c r="U156" s="5"/>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B157" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C157" s="23" t="s">
-        <v>179</v>
+      <c r="A157" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="P157" s="1"/>
+      <c r="U157" s="1"/>
+      <c r="V157" s="2"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A158" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>202</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A159" s="3"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="3"/>
-      <c r="I159" s="3"/>
-      <c r="K159" s="3"/>
-      <c r="L159" s="3"/>
-      <c r="M159" s="3"/>
-      <c r="N159" s="3"/>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="U159" s="5"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A160" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C160" s="25" t="s">
-        <v>199</v>
-      </c>
-      <c r="P160" s="1"/>
-      <c r="U160" s="1"/>
-      <c r="V160" s="2"/>
+      <c r="A159" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C160" s="29" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>202</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A162" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="C163" s="29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A164" s="10" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="C165" s="29" t="s">
+    <row r="162" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="C162" s="29" t="s">
         <v>206</v>
       </c>
     </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A163" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="B163" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="C163" s="29"/>
+    </row>
+    <row r="164" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="C164" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C165" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D165" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A166" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B166" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C166" s="29"/>
+      <c r="A166" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="167" spans="1:22" ht="116" x14ac:dyDescent="0.35">
       <c r="C167" s="29" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A168" s="10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="C169" s="29" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A170" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D168" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A171" s="10" t="s">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A169" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D169" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="58" x14ac:dyDescent="0.35">
-      <c r="C172" s="29" t="s">
+    <row r="170" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C170" s="29" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="173" spans="1:22" ht="116" x14ac:dyDescent="0.35">
-      <c r="B173" s="2" t="s">
+    <row r="171" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="B171" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C173" s="29" t="s">
+      <c r="C171" s="29" t="s">
         <v>215</v>
       </c>
     </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A172" s="3"/>
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="3"/>
+      <c r="F172" s="3"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="3"/>
+      <c r="I172" s="3"/>
+      <c r="K172" s="3"/>
+      <c r="L172" s="3"/>
+      <c r="M172" s="3"/>
+      <c r="N172" s="3"/>
+      <c r="P172" s="5"/>
+      <c r="Q172" s="5"/>
+      <c r="R172" s="5"/>
+      <c r="S172" s="5"/>
+      <c r="U172" s="5"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A173" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="P173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="2"/>
+    </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A174" s="3"/>
-      <c r="B174" s="5"/>
-      <c r="C174" s="6"/>
-      <c r="D174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="5"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-      <c r="K174" s="3"/>
-      <c r="L174" s="3"/>
-      <c r="M174" s="3"/>
-      <c r="N174" s="3"/>
-      <c r="P174" s="5"/>
-      <c r="Q174" s="5"/>
-      <c r="R174" s="5"/>
-      <c r="S174" s="5"/>
-      <c r="U174" s="5"/>
+      <c r="A174" s="10" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A175" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C175" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="P175" s="1"/>
-      <c r="U175" s="1"/>
-      <c r="V175" s="2"/>
+      <c r="B175" s="34" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A176" s="10" t="s">
-        <v>240</v>
+      <c r="D176" s="38" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A10:D10"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6572,10 +7406,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6610,12 +7444,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -6672,7 +7506,7 @@
       <c r="B5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="35" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6716,6 +7550,105 @@
       </c>
       <c r="C11" s="29" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="37"/>
+      <c r="C13" s="35" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C14" s="35"/>
+    </row>
+    <row r="15" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C16" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="35"/>
+    </row>
+    <row r="19" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6735,7 +7668,7 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -6771,12 +7704,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7022,10 +7955,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7060,12 +7993,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
@@ -7096,7 +8029,9 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>244</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="4"/>
       <c r="D4" s="1"/>
@@ -7116,6 +8051,66 @@
       <c r="U4" s="2"/>
       <c r="V4" s="1"/>
     </row>
+    <row r="5" spans="1:22" ht="116" x14ac:dyDescent="0.35">
+      <c r="C5" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C6" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C8" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="18"/>
+      <c r="C14" s="35" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
